--- a/Documents/Timeline.xlsx
+++ b/Documents/Timeline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF04E1D2-870B-4149-9BE8-362E35DCB474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952AB21B-EA94-4B8F-86D5-3DFD4D4F9A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="27720" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13094" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -913,6 +913,25 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="11" borderId="2" xfId="12" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="10" borderId="2" xfId="12" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -923,25 +942,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="11" borderId="2" xfId="12" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="10" borderId="2" xfId="12" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1513,11 +1513,11 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="142" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -1526,12 +1526,12 @@
     <col min="5" max="5" width="10.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1328125" hidden="1" customWidth="1"/>
     <col min="9" max="64" width="2.6640625" customWidth="1"/>
     <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="57" t="s">
         <v>28</v>
       </c>
@@ -1545,14 +1545,14 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="56" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="62"/>
       <c r="I2" s="59"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="56" t="s">
         <v>29</v>
       </c>
@@ -1561,12 +1561,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="83"/>
-      <c r="E3" s="81">
+      <c r="E3" s="88">
         <v>43983</v>
       </c>
-      <c r="F3" s="81"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="88"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="57" t="s">
         <v>30</v>
       </c>
@@ -1577,88 +1577,88 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="85">
         <f>I5</f>
         <v>43983</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="78">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f>P5</f>
         <v>43990</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="78">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f>W5</f>
         <v>43997</v>
       </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="78">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f>AD5</f>
         <v>44004</v>
       </c>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="78">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f>AK5</f>
         <v>44011</v>
       </c>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="78">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f>AR5</f>
         <v>44018</v>
       </c>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="78">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f>AY5</f>
         <v>44025</v>
       </c>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="78">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f>BF5</f>
         <v>44032</v>
       </c>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="79"/>
-      <c r="BK4" s="79"/>
-      <c r="BL4" s="80"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="57" t="s">
         <v>31</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="57" t="s">
         <v>32</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="56" t="s">
         <v>27</v>
       </c>
@@ -2208,7 +2208,7 @@
       <c r="BK7" s="42"/>
       <c r="BL7" s="42"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="57" t="s">
         <v>33</v>
       </c>
@@ -2281,7 +2281,7 @@
       <c r="BK8" s="42"/>
       <c r="BL8" s="42"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="57" t="s">
         <v>34</v>
       </c>
@@ -2364,7 +2364,7 @@
       <c r="BK9" s="42"/>
       <c r="BL9" s="42"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="57" t="s">
         <v>35</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="21">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E10" s="64">
         <v>43985</v>
@@ -2446,7 +2446,7 @@
       <c r="BK10" s="42"/>
       <c r="BL10" s="42"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="56"/>
       <c r="B11" s="74" t="s">
         <v>42</v>
@@ -2455,7 +2455,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="21">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E11" s="64">
         <v>43985</v>
@@ -2526,7 +2526,7 @@
       <c r="BK11" s="42"/>
       <c r="BL11" s="42"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="56"/>
       <c r="B12" s="74" t="s">
         <v>43</v>
@@ -2535,7 +2535,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E12" s="64">
         <v>43990</v>
@@ -2606,7 +2606,7 @@
       <c r="BK12" s="42"/>
       <c r="BL12" s="42"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="56"/>
       <c r="B13" s="74" t="s">
         <v>44</v>
@@ -2686,7 +2686,7 @@
       <c r="BK13" s="42"/>
       <c r="BL13" s="42"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="57" t="s">
         <v>36</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="BK14" s="42"/>
       <c r="BL14" s="42"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="57"/>
       <c r="B15" s="75" t="s">
         <v>48</v>
@@ -2840,7 +2840,7 @@
       <c r="BK15" s="42"/>
       <c r="BL15" s="42"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="56"/>
       <c r="B16" s="75" t="s">
         <v>49</v>
@@ -2921,7 +2921,7 @@
       <c r="BK16" s="42"/>
       <c r="BL16" s="42"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="56"/>
       <c r="B17" s="75" t="s">
         <v>50</v>
@@ -3001,7 +3001,7 @@
       <c r="BK17" s="42"/>
       <c r="BL17" s="42"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="56"/>
       <c r="B18" s="75" t="s">
         <v>51</v>
@@ -3082,7 +3082,7 @@
       <c r="BK18" s="42"/>
       <c r="BL18" s="42"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="56"/>
       <c r="B19" s="75" t="s">
         <v>56</v>
@@ -3163,7 +3163,7 @@
       <c r="BK19" s="42"/>
       <c r="BL19" s="42"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="56" t="s">
         <v>24</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="BK20" s="42"/>
       <c r="BL20" s="42"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="56"/>
       <c r="B21" s="76" t="s">
         <v>54</v>
@@ -3314,15 +3314,15 @@
       <c r="BK21" s="42"/>
       <c r="BL21" s="42"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="56"/>
       <c r="B22" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="86">
+      <c r="D22" s="79">
         <v>0</v>
       </c>
       <c r="E22" s="76" t="s">
@@ -3393,15 +3393,15 @@
       <c r="BK22" s="42"/>
       <c r="BL22" s="42"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="56"/>
       <c r="B23" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="79">
         <v>0</v>
       </c>
       <c r="E23" s="76" t="s">
@@ -3472,15 +3472,15 @@
       <c r="BK23" s="42"/>
       <c r="BL23" s="42"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="56"/>
       <c r="B24" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="79">
         <v>0</v>
       </c>
       <c r="E24" s="76" t="s">
@@ -3551,15 +3551,15 @@
       <c r="BK24" s="42"/>
       <c r="BL24" s="42"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="56"/>
       <c r="B25" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="86">
+      <c r="D25" s="79">
         <v>0</v>
       </c>
       <c r="E25" s="76" t="s">
@@ -3630,17 +3630,17 @@
       <c r="BK25" s="42"/>
       <c r="BL25" s="42"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="79">
         <v>0</v>
       </c>
       <c r="E26" s="76" t="s">
@@ -3711,7 +3711,7 @@
       <c r="BK26" s="42"/>
       <c r="BL26" s="42"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="56"/>
       <c r="B27" s="32" t="s">
         <v>55</v>
@@ -3782,15 +3782,15 @@
       <c r="BK27" s="42"/>
       <c r="BL27" s="42"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="56"/>
       <c r="B28" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="87">
+      <c r="D28" s="80">
         <v>0</v>
       </c>
       <c r="E28" s="77" t="s">
@@ -3861,15 +3861,15 @@
       <c r="BK28" s="42"/>
       <c r="BL28" s="42"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="56"/>
       <c r="B29" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="87">
+      <c r="D29" s="80">
         <v>0</v>
       </c>
       <c r="E29" s="77" t="s">
@@ -3940,15 +3940,15 @@
       <c r="BK29" s="42"/>
       <c r="BL29" s="42"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="56"/>
       <c r="B30" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="87">
+      <c r="D30" s="80">
         <v>0</v>
       </c>
       <c r="E30" s="77" t="s">
@@ -4019,7 +4019,7 @@
       <c r="BK30" s="42"/>
       <c r="BL30" s="42"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="56"/>
       <c r="B31" s="77" t="s">
         <v>40</v>
@@ -4098,7 +4098,7 @@
       <c r="BK31" s="42"/>
       <c r="BL31" s="42"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="56" t="s">
         <v>26</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="BK32" s="42"/>
       <c r="BL32" s="42"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="57" t="s">
         <v>25</v>
       </c>
@@ -4250,23 +4250,18 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C35" s="14"/>
       <c r="F35" s="58"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4274,6 +4269,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D21 D27 D33">
@@ -4344,86 +4344,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="46" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="87.1328125" style="46" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="48" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:2" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A2" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="47"/>
     </row>
-    <row r="3" spans="1:2" s="52" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="52" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="53" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="53"/>
     </row>
-    <row r="4" spans="1:2" s="49" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A4" s="50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="46" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="46" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="49" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A8" s="50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A9" s="51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="46" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="46" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="49" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A11" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A12" s="51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="46" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="46" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="49" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A14" s="50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.4">
       <c r="A16" s="51" t="s">
         <v>15</v>
       </c>

--- a/Documents/Timeline.xlsx
+++ b/Documents/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952AB21B-EA94-4B8F-86D5-3DFD4D4F9A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419096F3-DD8E-4434-A670-E5C625814C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13094" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,6 +925,18 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -932,18 +944,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1514,7 +1514,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="142" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1557,117 +1557,117 @@
         <v>29</v>
       </c>
       <c r="B3" s="63"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="88">
+      <c r="D3" s="87"/>
+      <c r="E3" s="85">
         <v>43983</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="82">
         <f>I5</f>
         <v>43983</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="82">
         <f>P5</f>
         <v>43990</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="82">
         <f>W5</f>
         <v>43997</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="82">
         <f>AD5</f>
         <v>44004</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="82">
         <f>AK5</f>
         <v>44011</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="82">
         <f>AR5</f>
         <v>44018</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="82">
         <f>AY5</f>
         <v>44025</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="84"/>
+      <c r="BF4" s="82">
         <f>BF5</f>
         <v>44032</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="83"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="84"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43983</v>
@@ -2381,13 +2381,13 @@
         <v>43985</v>
       </c>
       <c r="F10" s="64">
-        <f>E10+12</f>
-        <v>43997</v>
+        <f>E10+14</f>
+        <v>43999</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
@@ -2461,13 +2461,13 @@
         <v>43985</v>
       </c>
       <c r="F11" s="64">
-        <f>E11+12</f>
-        <v>43997</v>
+        <f>E11+14</f>
+        <v>43999</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
@@ -4262,6 +4262,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4269,11 +4274,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D21 D27 D33">

--- a/Documents/Timeline.xlsx
+++ b/Documents/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419096F3-DD8E-4434-A670-E5C625814C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611A3054-3970-41A8-A590-C59A666B531A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13094" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,6 +925,13 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -937,13 +944,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1512,9 +1512,9 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="142" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="73" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1557,117 +1557,117 @@
         <v>29</v>
       </c>
       <c r="B3" s="63"/>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="85">
+      <c r="D3" s="83"/>
+      <c r="E3" s="88">
         <v>43983</v>
       </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="82">
+      <c r="I4" s="85">
         <f>I5</f>
         <v>43983</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="82">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f>P5</f>
         <v>43990</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="82">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f>W5</f>
         <v>43997</v>
       </c>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="82">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f>AD5</f>
         <v>44004</v>
       </c>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="82">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f>AK5</f>
         <v>44011</v>
       </c>
-      <c r="AL4" s="83"/>
-      <c r="AM4" s="83"/>
-      <c r="AN4" s="83"/>
-      <c r="AO4" s="83"/>
-      <c r="AP4" s="83"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="82">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f>AR5</f>
         <v>44018</v>
       </c>
-      <c r="AS4" s="83"/>
-      <c r="AT4" s="83"/>
-      <c r="AU4" s="83"/>
-      <c r="AV4" s="83"/>
-      <c r="AW4" s="83"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="82">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f>AY5</f>
         <v>44025</v>
       </c>
-      <c r="AZ4" s="83"/>
-      <c r="BA4" s="83"/>
-      <c r="BB4" s="83"/>
-      <c r="BC4" s="83"/>
-      <c r="BD4" s="83"/>
-      <c r="BE4" s="84"/>
-      <c r="BF4" s="82">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f>BF5</f>
         <v>44032</v>
       </c>
-      <c r="BG4" s="83"/>
-      <c r="BH4" s="83"/>
-      <c r="BI4" s="83"/>
-      <c r="BJ4" s="83"/>
-      <c r="BK4" s="83"/>
-      <c r="BL4" s="84"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43983</v>
@@ -2375,7 +2375,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="21">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="64">
         <v>43985</v>
@@ -2455,7 +2455,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="21">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E11" s="64">
         <v>43985</v>
@@ -2535,7 +2535,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="21">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="64">
         <v>43990</v>
@@ -4262,11 +4262,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4274,6 +4269,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D21 D27 D33">

--- a/Documents/Timeline.xlsx
+++ b/Documents/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611A3054-3970-41A8-A590-C59A666B531A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E54AC7C-EDF2-4F08-9CB8-44CB75A1C066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13094" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,6 +925,18 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -932,18 +944,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1557,117 +1557,117 @@
         <v>29</v>
       </c>
       <c r="B3" s="63"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="88">
+      <c r="D3" s="87"/>
+      <c r="E3" s="85">
         <v>43983</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="82">
         <f>I5</f>
         <v>43983</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="82">
         <f>P5</f>
         <v>43990</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="82">
         <f>W5</f>
         <v>43997</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="82">
         <f>AD5</f>
         <v>44004</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="82">
         <f>AK5</f>
         <v>44011</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="82">
         <f>AR5</f>
         <v>44018</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="82">
         <f>AY5</f>
         <v>44025</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="84"/>
+      <c r="BF4" s="82">
         <f>BF5</f>
         <v>44032</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="83"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="84"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43983</v>
@@ -2535,7 +2535,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="64">
         <v>43990</v>
@@ -4262,6 +4262,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4269,11 +4274,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D21 D27 D33">

--- a/Documents/Timeline.xlsx
+++ b/Documents/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E54AC7C-EDF2-4F08-9CB8-44CB75A1C066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1111F209-C75D-471D-A844-2ECC67EE6FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13094" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,6 +925,13 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -937,13 +944,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1514,7 +1514,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="73" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1557,117 +1557,117 @@
         <v>29</v>
       </c>
       <c r="B3" s="63"/>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="85">
+      <c r="D3" s="83"/>
+      <c r="E3" s="88">
         <v>43983</v>
       </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="82">
+      <c r="I4" s="85">
         <f>I5</f>
         <v>43983</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="82">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f>P5</f>
         <v>43990</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="82">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f>W5</f>
         <v>43997</v>
       </c>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="82">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f>AD5</f>
         <v>44004</v>
       </c>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="82">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f>AK5</f>
         <v>44011</v>
       </c>
-      <c r="AL4" s="83"/>
-      <c r="AM4" s="83"/>
-      <c r="AN4" s="83"/>
-      <c r="AO4" s="83"/>
-      <c r="AP4" s="83"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="82">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f>AR5</f>
         <v>44018</v>
       </c>
-      <c r="AS4" s="83"/>
-      <c r="AT4" s="83"/>
-      <c r="AU4" s="83"/>
-      <c r="AV4" s="83"/>
-      <c r="AW4" s="83"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="82">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f>AY5</f>
         <v>44025</v>
       </c>
-      <c r="AZ4" s="83"/>
-      <c r="BA4" s="83"/>
-      <c r="BB4" s="83"/>
-      <c r="BC4" s="83"/>
-      <c r="BD4" s="83"/>
-      <c r="BE4" s="84"/>
-      <c r="BF4" s="82">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f>BF5</f>
         <v>44032</v>
       </c>
-      <c r="BG4" s="83"/>
-      <c r="BH4" s="83"/>
-      <c r="BI4" s="83"/>
-      <c r="BJ4" s="83"/>
-      <c r="BK4" s="83"/>
-      <c r="BL4" s="84"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43983</v>
@@ -2535,7 +2535,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="21">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="64">
         <v>43990</v>
@@ -4262,11 +4262,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4274,6 +4269,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D21 D27 D33">
